--- a/new_data/N225/N225_2019/N225_2019_list.xlsx
+++ b/new_data/N225/N225_2019/N225_2019_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\N225\N225_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7808A15-9F1B-4E25-9A0C-1B23D824D8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C13A2-77A1-47E1-82EB-E1901C0BE212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Volume</t>
   </si>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  bias_12_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   bias_24 _L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1012,16 @@
         <v>24</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_data/N225/N225_2019/N225_2019_list.xlsx
+++ b/new_data/N225/N225_2019/N225_2019_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\N225\N225_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C13A2-77A1-47E1-82EB-E1901C0BE212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D03018-70BD-4C9F-AB57-98BFECF739FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Volume</t>
   </si>
@@ -128,11 +128,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  bias_12_L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   bias_24 _L1</t>
+    <t>BIAS_12_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_24_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -830,7 +850,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -848,7 +868,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -866,7 +886,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -884,7 +904,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
@@ -897,7 +917,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
@@ -1013,13 +1033,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="10" t="s">
-        <v>30</v>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
